--- a/AdvancedJS.xlsx
+++ b/AdvancedJS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Desktop\Coding\softUniJSAdvanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C53A27-132E-4E65-A235-80C438898FA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BE5085-409D-48E9-B6B7-7576ADBEA757}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30840" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{2CD0B420-44AB-4B4D-8BDD-33FD409517FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Lecture / Lab</t>
   </si>
@@ -73,13 +73,16 @@
   </si>
   <si>
     <t>Arrays and Nested Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +148,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +193,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -195,8 +217,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -206,9 +230,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -265,9 +286,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,7 +609,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -595,210 +621,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="22">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="22">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="22">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="17"/>
+      <c r="B7" s="22">
         <v>6</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="15" t="s">
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="17"/>
+      <c r="B8" s="22">
         <v>7</v>
       </c>
-      <c r="B4" s="23">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="22">
         <v>8</v>
       </c>
-      <c r="B5" s="23">
-        <v>4</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="23">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C25" s="12"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C26" s="12"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C27" s="12"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C28" s="12"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C29" s="12"/>
+      <c r="C29" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" location="lesson-10931" xr:uid="{D084327C-D089-46DA-9AF9-D3BE5C74617F}"/>
+    <hyperlink ref="D2" r:id="rId2" location="lesson-10931" xr:uid="{6BD55ED9-9A9E-4994-B6BF-7FF4306866A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>